--- a/Blatt 4/2a.xlsx
+++ b/Blatt 4/2a.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>n_1</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Objekt kann undefiniert sein. =&gt; das in n_in undefniert bleibt  und ein ur in n_1 oder später entsteht.</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -418,14 +421,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -535,8 +538,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
+      <c r="A13" t="s">
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
